--- a/Time_Cost-Analysis/Data_Analyze_SA.xlsx
+++ b/Time_Cost-Analysis/Data_Analyze_SA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecauac-my.sharepoint.com/personal/sw0082_cau_ac_kr/Documents/과제/인공지능/TSP git/Time_Cost Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw008\OneDrive - 중앙대학교\과제\인공지능\TSP-improving\Time_Cost-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA113595-315F-4677-9847-C90791452CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="8_{CA113595-315F-4677-9847-C90791452CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1783D900-9242-4218-93BD-75D14CAAD1CB}"/>
   <bookViews>
-    <workbookView xWindow="24864" yWindow="3468" windowWidth="30960" windowHeight="12204" xr2:uid="{E3CB97A0-1B56-4550-824D-6942D65F0376}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{E3CB97A0-1B56-4550-824D-6942D65F0376}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,11 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
-  <si>
-    <t>Data 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Time</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -47,23 +43,47 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SA</t>
+    <t>TEMPERATURE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Data 2</t>
+    <t>COOLING_RATID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Data 3</t>
+    <t>SUB_STEPS</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100000/0.90/500</t>
+    <t>while temp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10000/0.90/500</t>
+    <t>Under Sel.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of Cost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Set</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propriate while temp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -236,6 +256,2135 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99852426369023395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0001170192189215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0099513191507603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0318433045572457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0297558491402434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0273430234686924</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0252023588829871</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0283286642141281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4225-47EE-B78D-1E3EBD0F8F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99008806455037401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99099536851743897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98776479635994741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98809542018287189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98396059439008354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98199799880690031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98372025521819439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98243279578921261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4225-47EE-B78D-1E3EBD0F8F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$Z$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99098121970795683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98787923248478582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98705512593565814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98174748022170044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98111485963604173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97780573118929281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97671083014542637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97649076270855195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4225-47EE-B78D-1E3EBD0F8F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1679053184"/>
+        <c:axId val="1618902912"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="1618902912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1679053184"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1679053184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1618902912"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>% of Cost</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2055888258532489E-2"/>
+          <c:y val="0.20770784368272485"/>
+          <c:w val="0.85196910557493744"/>
+          <c:h val="0.74634925791366424"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$26:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$26:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CEA-495A-A74D-BB440AB3643D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1717529920"/>
+        <c:axId val="1381360624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1717529920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381360624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1381360624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717529920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3DF2C2-A729-4803-B626-92A70AEDD663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>612065</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>212463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1038785</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>79786</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85993DBF-D632-4394-A2B3-3D0DF19A780C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,255 +2684,903 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8E92C9-2643-46B3-99C3-199ADCAFD7C0}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" customWidth="1"/>
+    <col min="11" max="11" width="18.69921875" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" customWidth="1"/>
+    <col min="13" max="13" width="5.3984375" customWidth="1"/>
+    <col min="15" max="15" width="18.8984375" customWidth="1"/>
+    <col min="20" max="20" width="19.19921875" customWidth="1"/>
+    <col min="24" max="24" width="20.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>100000</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10.8626492023468</v>
+      </c>
+      <c r="F3">
+        <v>598.19079357405099</v>
+      </c>
+      <c r="G3">
+        <v>106</v>
+      </c>
+      <c r="H3">
+        <f>F3/$F$3</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>100000</v>
+      </c>
+      <c r="K3">
+        <v>0.9</v>
+      </c>
+      <c r="L3">
+        <v>500</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>54.302579641342099</v>
+      </c>
+      <c r="O3">
+        <v>4778.5124295493997</v>
+      </c>
+      <c r="P3">
+        <v>93</v>
+      </c>
+      <c r="Q3">
+        <f>O3/$O$3</f>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>100000</v>
+      </c>
+      <c r="T3">
+        <v>0.9</v>
+      </c>
+      <c r="U3">
+        <v>500</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>72.2914941310882</v>
+      </c>
+      <c r="X3">
+        <v>7152.2005926642396</v>
+      </c>
+      <c r="Y3">
+        <v>91</v>
+      </c>
+      <c r="Z3">
+        <f>X3/$X$3</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>0.9</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4">
+        <v>9.0940387248992902</v>
+      </c>
+      <c r="F4">
+        <v>597.30802169980598</v>
+      </c>
+      <c r="G4">
+        <v>82</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H11" si="0">F4/$F$3</f>
+        <v>0.99852426369023395</v>
+      </c>
+      <c r="J4">
+        <v>10000</v>
+      </c>
+      <c r="K4">
+        <v>0.9</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
+      <c r="N4">
+        <v>45.236342191696103</v>
+      </c>
+      <c r="O4">
+        <v>4731.1481228024704</v>
+      </c>
+      <c r="P4">
+        <v>73</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q11" si="1">O4/$O$3</f>
+        <v>0.99008806455037401</v>
+      </c>
+      <c r="S4">
+        <v>10000</v>
+      </c>
+      <c r="T4">
+        <v>0.9</v>
+      </c>
+      <c r="U4">
+        <v>500</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>55.978118896484297</v>
+      </c>
+      <c r="X4">
+        <v>7087.6964669143799</v>
+      </c>
+      <c r="Y4">
+        <v>77</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z11" si="2">X4/$X$3</f>
+        <v>0.99098121970795683</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>10.8626492023468</v>
-      </c>
-      <c r="B4">
-        <v>598.19079357405099</v>
-      </c>
-      <c r="D4">
-        <v>9.0940387248992902</v>
-      </c>
-      <c r="E4">
-        <v>597.30802169980598</v>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>6.5964779853820801</v>
+      </c>
+      <c r="F5">
+        <v>598.26079339348098</v>
+      </c>
+      <c r="G5">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.0001170192189215</v>
+      </c>
+      <c r="J5">
+        <v>10000</v>
+      </c>
+      <c r="K5">
+        <v>0.9</v>
+      </c>
+      <c r="L5">
+        <v>500</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>28.910798072814899</v>
+      </c>
+      <c r="O5">
+        <v>4735.4836860864698</v>
+      </c>
+      <c r="P5">
+        <v>52</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0.99099536851743897</v>
+      </c>
+      <c r="S5">
+        <v>10000</v>
+      </c>
+      <c r="T5">
+        <v>0.9</v>
+      </c>
+      <c r="U5">
+        <v>500</v>
+      </c>
+      <c r="V5">
+        <v>30</v>
+      </c>
+      <c r="W5">
+        <v>36.540363073348999</v>
+      </c>
+      <c r="X5">
+        <v>7065.5104320583796</v>
+      </c>
+      <c r="Y5">
+        <v>55</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="2"/>
+        <v>0.98787923248478582</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>10.693207263946499</v>
-      </c>
-      <c r="B5">
-        <v>598.19079357405099</v>
-      </c>
-      <c r="D5">
-        <v>9.0215778350830007</v>
-      </c>
-      <c r="E5">
-        <v>597.30802169980598</v>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>0.9</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>5.2980103492736799</v>
+      </c>
+      <c r="F6">
+        <v>604.14358107395299</v>
+      </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.0099513191507603</v>
+      </c>
+      <c r="J6">
+        <v>10000</v>
+      </c>
+      <c r="K6">
+        <v>0.9</v>
+      </c>
+      <c r="L6">
+        <v>500</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>22.4874300956726</v>
+      </c>
+      <c r="O6">
+        <v>4720.0463568773403</v>
+      </c>
+      <c r="P6">
+        <v>41</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0.98776479635994741</v>
+      </c>
+      <c r="S6">
+        <v>10000</v>
+      </c>
+      <c r="T6">
+        <v>0.9</v>
+      </c>
+      <c r="U6">
+        <v>500</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6">
+        <v>27.543750524520799</v>
+      </c>
+      <c r="X6">
+        <v>7059.6162567092897</v>
+      </c>
+      <c r="Y6">
+        <v>44</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="2"/>
+        <v>0.98705512593565814</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>10.7644131183624</v>
-      </c>
-      <c r="B6">
-        <v>598.19079357405099</v>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>3.9724442958831698</v>
+      </c>
+      <c r="F7">
+        <v>617.23916519717</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.0318433045572457</v>
+      </c>
+      <c r="J7">
+        <v>10000</v>
+      </c>
+      <c r="K7">
+        <v>0.9</v>
+      </c>
+      <c r="L7">
+        <v>500</v>
+      </c>
+      <c r="M7">
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <v>18.961410045623701</v>
+      </c>
+      <c r="O7">
+        <v>4721.6262469246903</v>
+      </c>
+      <c r="P7">
+        <v>33</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0.98809542018287189</v>
+      </c>
+      <c r="S7">
+        <v>10000</v>
+      </c>
+      <c r="T7">
+        <v>0.9</v>
+      </c>
+      <c r="U7">
+        <v>500</v>
+      </c>
+      <c r="V7">
+        <v>300</v>
+      </c>
+      <c r="W7">
+        <v>21.696149587631201</v>
+      </c>
+      <c r="X7">
+        <v>7021.6549098882697</v>
+      </c>
+      <c r="Y7">
+        <v>34</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="2"/>
+        <v>0.98174748022170044</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
-        <f>AVERAGE(A4:A6)</f>
-        <v>10.773423194885233</v>
-      </c>
-      <c r="B7" s="3">
-        <f>AVERAGE(B4:B6)</f>
-        <v>598.19079357405099</v>
-      </c>
-      <c r="D7" s="3">
-        <f>AVERAGE(D4:D6)</f>
-        <v>9.0578082799911463</v>
-      </c>
-      <c r="E7" s="3">
-        <f>AVERAGE(E4:E6)</f>
-        <v>597.30802169980598</v>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>0.9</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>3.5841386318206698</v>
+      </c>
+      <c r="F8">
+        <v>615.99046858472298</v>
+      </c>
+      <c r="G8">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.0297558491402434</v>
+      </c>
+      <c r="J8">
+        <v>10000</v>
+      </c>
+      <c r="K8">
+        <v>0.9</v>
+      </c>
+      <c r="L8">
+        <v>500</v>
+      </c>
+      <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="N8">
+        <v>15.8698523044586</v>
+      </c>
+      <c r="O8">
+        <v>4701.8679304798297</v>
+      </c>
+      <c r="P8">
+        <v>28</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0.98396059439008354</v>
+      </c>
+      <c r="S8">
+        <v>10000</v>
+      </c>
+      <c r="T8">
+        <v>0.9</v>
+      </c>
+      <c r="U8">
+        <v>500</v>
+      </c>
+      <c r="V8">
+        <v>500</v>
+      </c>
+      <c r="W8">
+        <v>17.8897607326507</v>
+      </c>
+      <c r="X8">
+        <v>7017.1302805605901</v>
+      </c>
+      <c r="Y8">
+        <v>29</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>0.98111485963604173</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>4</v>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <v>800</v>
+      </c>
+      <c r="E9">
+        <v>3.15070629119873</v>
+      </c>
+      <c r="F9">
+        <v>614.54713848150197</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.0273430234686924</v>
+      </c>
+      <c r="J9">
+        <v>10000</v>
+      </c>
+      <c r="K9">
+        <v>0.9</v>
+      </c>
+      <c r="L9">
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <v>800</v>
+      </c>
+      <c r="N9">
+        <v>13.66033577919</v>
+      </c>
+      <c r="O9">
+        <v>4692.4896430914096</v>
+      </c>
+      <c r="P9">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0.98199799880690031</v>
+      </c>
+      <c r="S9">
+        <v>10000</v>
+      </c>
+      <c r="T9">
+        <v>0.9</v>
+      </c>
+      <c r="U9">
+        <v>500</v>
+      </c>
+      <c r="V9">
+        <v>800</v>
+      </c>
+      <c r="W9">
+        <v>15.667019605636501</v>
+      </c>
+      <c r="X9">
+        <v>6993.4627301225501</v>
+      </c>
+      <c r="Y9">
+        <v>24</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>0.97780573118929281</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>10000</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>3.0996944904327299</v>
+      </c>
+      <c r="F10">
+        <v>613.26661263420306</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.0252023588829871</v>
+      </c>
+      <c r="J10">
+        <v>10000</v>
+      </c>
+      <c r="K10">
+        <v>0.9</v>
+      </c>
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+      <c r="N10">
+        <v>12.2145481109619</v>
+      </c>
+      <c r="O10">
+        <v>4700.7194667596495</v>
+      </c>
+      <c r="P10">
+        <v>21</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0.98372025521819439</v>
+      </c>
+      <c r="S10">
+        <v>10000</v>
+      </c>
+      <c r="T10">
+        <v>0.9</v>
+      </c>
+      <c r="U10">
+        <v>500</v>
+      </c>
+      <c r="V10">
+        <v>1000</v>
+      </c>
+      <c r="W10">
+        <v>14.6040961742401</v>
+      </c>
+      <c r="X10">
+        <v>6985.6317782277001</v>
+      </c>
+      <c r="Y10">
+        <v>22</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>0.97671083014542637</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>0.9</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11">
+        <v>1300</v>
+      </c>
+      <c r="E11">
+        <v>2.8116483688354399</v>
+      </c>
+      <c r="F11">
+        <v>615.13673970119305</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.0283286642141281</v>
+      </c>
+      <c r="J11">
+        <v>10000</v>
+      </c>
+      <c r="K11">
+        <v>0.9</v>
+      </c>
+      <c r="L11">
+        <v>500</v>
+      </c>
+      <c r="M11">
+        <v>1300</v>
+      </c>
+      <c r="N11">
+        <v>10.5713694095611</v>
+      </c>
+      <c r="O11">
+        <v>4694.5673258757197</v>
+      </c>
+      <c r="P11">
+        <v>19</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0.98243279578921261</v>
+      </c>
+      <c r="S11">
+        <v>10000</v>
+      </c>
+      <c r="T11">
+        <v>0.9</v>
+      </c>
+      <c r="U11">
+        <v>500</v>
+      </c>
+      <c r="V11">
+        <v>1300</v>
+      </c>
+      <c r="W11">
+        <v>13.618491888046201</v>
+      </c>
+      <c r="X11">
+        <v>6984.0578117752602</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>0.97649076270855195</v>
+      </c>
+    </row>
+    <row r="19" spans="5:25" x14ac:dyDescent="0.4">
+      <c r="E19" s="3">
+        <f>AVERAGE(E3:E18)</f>
+        <v>5.3855342600080665</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19:G19" si="3">AVERAGE(F3:F18)</f>
+        <v>608.23147937112014</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>46.333333333333336</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="N19" s="3">
+        <f>AVERAGE(N3:N18)</f>
+        <v>24.690518405702335</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" ref="O19" si="4">AVERAGE(O3:O18)</f>
+        <v>4719.6068009385535</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19" si="5">AVERAGE(P3:P18)</f>
+        <v>42.555555555555557</v>
+      </c>
+      <c r="W19" s="3">
+        <f>AVERAGE(W3:W18)</f>
+        <v>30.647693845960777</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" ref="X19" si="6">AVERAGE(X3:X18)</f>
+        <v>7040.7734732134059</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" ref="Y19" si="7">AVERAGE(Y3:Y18)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="5:25" x14ac:dyDescent="0.4">
+      <c r="P25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="5:25" x14ac:dyDescent="0.4">
+      <c r="P26">
+        <v>131</v>
+      </c>
+      <c r="Q26">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>54.302579641342099</v>
-      </c>
-      <c r="B12">
-        <v>4778.5124295493997</v>
-      </c>
-      <c r="D12">
-        <v>45.236342191696103</v>
-      </c>
-      <c r="E12">
-        <v>4731.1481228024704</v>
+    <row r="27" spans="5:25" x14ac:dyDescent="0.4">
+      <c r="P27">
+        <v>1083</v>
+      </c>
+      <c r="Q27">
+        <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>54.311007976531897</v>
-      </c>
-      <c r="B13">
-        <v>4778.5124295493997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <f>AVERAGE(A12:A14)</f>
-        <v>54.306793808937002</v>
-      </c>
-      <c r="B15" s="3">
-        <f>AVERAGE(B12:B14)</f>
-        <v>4778.5124295493997</v>
-      </c>
-      <c r="D15" s="3">
-        <f>AVERAGE(D12:D14)</f>
-        <v>45.236342191696103</v>
-      </c>
-      <c r="E15" s="3">
-        <f>AVERAGE(E12:E14)</f>
-        <v>4731.1481228024704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>72.2914941310882</v>
-      </c>
-      <c r="B20">
-        <v>7152.2005926642396</v>
-      </c>
-      <c r="D20">
-        <v>55.978118896484297</v>
-      </c>
-      <c r="E20">
-        <v>7087.6964669143799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>72.159390211105304</v>
-      </c>
-      <c r="B21">
-        <v>7152.2005926642396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
-        <f>AVERAGE(A20:A22)</f>
-        <v>72.225442171096745</v>
-      </c>
-      <c r="B23" s="3">
-        <f>AVERAGE(B20:B22)</f>
-        <v>7152.2005926642396</v>
-      </c>
-      <c r="D23" s="3">
-        <f>AVERAGE(D20:D22)</f>
-        <v>55.978118896484297</v>
-      </c>
-      <c r="E23" s="3">
-        <f>AVERAGE(E20:E22)</f>
-        <v>7087.6964669143799</v>
+    <row r="28" spans="5:25" x14ac:dyDescent="0.4">
+      <c r="P28">
+        <v>1599</v>
+      </c>
+      <c r="Q28">
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -972,18 +3769,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1005,18 +3802,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55579AE9-22FD-4D29-A109-4AB051F3639C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE3478E-6FD3-48B5-A71D-89B7B7BF878A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55579AE9-22FD-4D29-A109-4AB051F3639C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Time_Cost-Analysis/Data_Analyze_SA.xlsx
+++ b/Time_Cost-Analysis/Data_Analyze_SA.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw008\OneDrive - 중앙대학교\과제\인공지능\TSP-improving\Time_Cost-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="8_{CA113595-315F-4677-9847-C90791452CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1783D900-9242-4218-93BD-75D14CAAD1CB}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="8_{CA113595-315F-4677-9847-C90791452CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B65D4969-67E2-4D31-B466-3D2FA2B05BB4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{E3CB97A0-1B56-4550-824D-6942D65F0376}"/>
+    <workbookView xWindow="25380" yWindow="1776" windowWidth="30960" windowHeight="12204" xr2:uid="{E3CB97A0-1B56-4550-824D-6942D65F0376}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$P$26:$P$29</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$Q$26:$Q$29</definedName>
+  </definedNames>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Time</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -86,12 +90,16 @@
     <t>Propriate while temp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">Final </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +141,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +170,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -211,7 +232,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,8 +245,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,11 +262,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="계산" xfId="1" builtinId="22"/>
     <cellStyle name="메모" xfId="3" builtinId="10"/>
     <cellStyle name="셀 확인" xfId="2" builtinId="23"/>
+    <cellStyle name="좋음" xfId="4" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -273,6 +301,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>cost per While condition </a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -726,6 +780,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1618902912"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -797,75 +852,9 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>% of Cost</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.2055888258532489E-2"/>
-          <c:y val="0.20770784368272485"/>
-          <c:w val="0.85196910557493744"/>
-          <c:h val="0.74634925791366424"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -900,87 +889,13 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:forward val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1016,17 +931,20 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$26:$P$28</c:f>
+              <c:f>Sheet1!$P$26:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1083</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1599</c:v>
                 </c:pt>
               </c:numCache>
@@ -1034,17 +952,20 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$26:$Q$28</c:f>
+              <c:f>Sheet1!$Q$26:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1300</c:v>
                 </c:pt>
               </c:numCache>
@@ -1053,7 +974,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CEA-495A-A74D-BB440AB3643D}"/>
+              <c16:uniqueId val="{00000000-5A85-4D20-B5FF-BFC9653BF6D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1065,11 +986,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1717529920"/>
-        <c:axId val="1381360624"/>
+        <c:axId val="1779374496"/>
+        <c:axId val="1569510400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1717529920"/>
+        <c:axId val="1779374496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,12 +1033,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1381360624"/>
+        <c:crossAx val="1569510400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1381360624"/>
+        <c:axId val="1569510400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1089,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717529920"/>
+        <c:crossAx val="1779374496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1808,7 +1729,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1916,6 +1837,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1926,6 +1852,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1957,6 +1888,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2350,23 +2284,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>612065</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>212463</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441414</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>159416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1038785</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>79786</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1176909</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85993DBF-D632-4394-A2B3-3D0DF19A780C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480BD439-1289-4FEC-A212-7DEC82CBC286}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8E92C9-2643-46B3-99C3-199ADCAFD7C0}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3505,46 +3439,96 @@
         <v>0.97649076270855195</v>
       </c>
     </row>
-    <row r="19" spans="5:25" x14ac:dyDescent="0.4">
-      <c r="E19" s="3">
-        <f>AVERAGE(E3:E18)</f>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="E14" s="3">
+        <f ca="1">AVERAGE(E3:E18)</f>
         <v>5.3855342600080665</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" ref="F19:G19" si="3">AVERAGE(F3:F18)</f>
+      <c r="F14" s="3">
+        <f ca="1">AVERAGE(F3:F18)</f>
         <v>608.23147937112014</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="3"/>
+      <c r="G14" s="3">
+        <f ca="1">AVERAGE(G3:G18)</f>
         <v>46.333333333333336</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="N19" s="3">
-        <f>AVERAGE(N3:N18)</f>
+      <c r="H14" s="3"/>
+      <c r="N14" s="3">
+        <f ca="1">AVERAGE(N3:N18)</f>
         <v>24.690518405702335</v>
       </c>
-      <c r="O19" s="3">
-        <f t="shared" ref="O19" si="4">AVERAGE(O3:O18)</f>
+      <c r="O14" s="3">
+        <f ca="1">AVERAGE(O3:O18)</f>
         <v>4719.6068009385535</v>
       </c>
-      <c r="P19" s="3">
-        <f t="shared" ref="P19" si="5">AVERAGE(P3:P18)</f>
+      <c r="P14" s="3">
+        <f ca="1">AVERAGE(P3:P18)</f>
         <v>42.555555555555557</v>
       </c>
-      <c r="W19" s="3">
-        <f>AVERAGE(W3:W18)</f>
+      <c r="W14" s="3">
+        <f ca="1">AVERAGE(W3:W18)</f>
         <v>30.647693845960777</v>
       </c>
-      <c r="X19" s="3">
-        <f t="shared" ref="X19" si="6">AVERAGE(X3:X18)</f>
+      <c r="X14" s="3">
+        <f ca="1">AVERAGE(X3:X18)</f>
         <v>7040.7734732134059</v>
       </c>
-      <c r="Y19" s="3">
-        <f t="shared" ref="Y19" si="7">AVERAGE(Y3:Y18)</f>
+      <c r="Y14" s="3">
+        <f ca="1">AVERAGE(Y3:Y18)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="5:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:26" x14ac:dyDescent="0.4">
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6.5425302982330296</v>
+      </c>
+      <c r="F19" s="4">
+        <v>598.26079339348098</v>
+      </c>
+      <c r="G19" s="4">
+        <v>56</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" ref="H19" si="3">F19/$F$3</f>
+        <v>1.0001170192189215</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="4">
+        <v>13.9063436985015</v>
+      </c>
+      <c r="O19" s="4">
+        <v>4692.4896430914096</v>
+      </c>
+      <c r="P19" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" ref="Q19" si="4">O19/$O$3</f>
+        <v>0.98199799880690031</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" s="4">
+        <v>13.6781260967254</v>
+      </c>
+      <c r="X19" s="4">
+        <v>6984.0578117752602</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" ref="Z19" si="5">X19/$O$3</f>
+        <v>1.4615548070121558</v>
+      </c>
+    </row>
+    <row r="25" spans="4:26" x14ac:dyDescent="0.4">
       <c r="P25" t="s">
         <v>11</v>
       </c>
@@ -3552,31 +3536,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="5:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:26" x14ac:dyDescent="0.4">
       <c r="P26">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="5:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:26" x14ac:dyDescent="0.4">
       <c r="P27">
+        <v>131</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:26" x14ac:dyDescent="0.4">
+      <c r="P28">
         <v>1083</v>
       </c>
-      <c r="Q27">
+      <c r="Q28">
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="5:25" x14ac:dyDescent="0.4">
-      <c r="P28">
+    <row r="29" spans="4:26" x14ac:dyDescent="0.4">
+      <c r="P29">
         <v>1599</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>1300</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P26:Q29">
+    <sortCondition ref="P26"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3585,6 +3580,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100D94E01AD38B9A7499D640DDC9AABD88F" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="03a66fc9afa39527380bd317f6aa3292">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e853eb9a-ebd3-4eed-8cb6-8c1751577767" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="574bf45a50b0194fbac0600a3b6efe76" ns3:_="">
     <xsd:import namespace="e853eb9a-ebd3-4eed-8cb6-8c1751577767"/>
@@ -3768,22 +3778,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55579AE9-22FD-4D29-A109-4AB051F3639C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE3478E-6FD3-48B5-A71D-89B7B7BF878A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7ECB-F669-4B54-9E67-C2E0067E23D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3799,21 +3811,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE3478E-6FD3-48B5-A71D-89B7B7BF878A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55579AE9-22FD-4D29-A109-4AB051F3639C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Time_Cost-Analysis/Data_Analyze_SA.xlsx
+++ b/Time_Cost-Analysis/Data_Analyze_SA.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw008\OneDrive - 중앙대학교\과제\인공지능\TSP-improving\Time_Cost-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="8_{CA113595-315F-4677-9847-C90791452CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B65D4969-67E2-4D31-B466-3D2FA2B05BB4}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="8_{CA113595-315F-4677-9847-C90791452CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FEFB77CD-E72A-4F16-8072-3D00D62AD2FC}"/>
   <bookViews>
-    <workbookView xWindow="25380" yWindow="1776" windowWidth="30960" windowHeight="12204" xr2:uid="{E3CB97A0-1B56-4550-824D-6942D65F0376}"/>
+    <workbookView xWindow="24924" yWindow="2244" windowWidth="30960" windowHeight="12204" xr2:uid="{E3CB97A0-1B56-4550-824D-6942D65F0376}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$P$26:$P$29</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$Q$26:$Q$29</definedName>
-  </definedNames>
   <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2621,11 +2617,12 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="14.8984375" customWidth="1"/>
     <col min="2" max="2" width="16.3984375" customWidth="1"/>
     <col min="4" max="4" width="10.296875" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" customWidth="1"/>
@@ -3524,8 +3521,8 @@
         <v>20</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" ref="Z19" si="5">X19/$O$3</f>
-        <v>1.4615548070121558</v>
+        <f t="shared" ref="Z19" si="5">X19/$X$3</f>
+        <v>0.97649076270855195</v>
       </c>
     </row>
     <row r="25" spans="4:26" x14ac:dyDescent="0.4">
@@ -3589,12 +3586,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100D94E01AD38B9A7499D640DDC9AABD88F" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="03a66fc9afa39527380bd317f6aa3292">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e853eb9a-ebd3-4eed-8cb6-8c1751577767" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="574bf45a50b0194fbac0600a3b6efe76" ns3:_="">
     <xsd:import namespace="e853eb9a-ebd3-4eed-8cb6-8c1751577767"/>
@@ -3778,6 +3769,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55579AE9-22FD-4D29-A109-4AB051F3639C}">
   <ds:schemaRefs>
@@ -3787,15 +3784,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE3478E-6FD3-48B5-A71D-89B7B7BF878A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7ECB-F669-4B54-9E67-C2E0067E23D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3811,4 +3799,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE3478E-6FD3-48B5-A71D-89B7B7BF878A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>